--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="415" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13F564C3-8EED-46E4-AB40-5859929B7B86}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Owned</t>
   </si>
@@ -446,12 +445,21 @@
   </si>
   <si>
     <t>XRP</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -469,7 +477,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -477,14 +485,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -510,21 +518,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -537,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -855,22 +863,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="17" max="17" width="79.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" customWidth="1"/>
-    <col min="30" max="30" width="37.85546875" customWidth="1"/>
+    <col customWidth="true" max="2" min="2" width="34.85546875"/>
+    <col customWidth="true" max="3" min="3" width="23.85546875"/>
+    <col customWidth="true" max="4" min="4" width="28.85546875"/>
+    <col customWidth="true" max="6" min="6" width="25"/>
+    <col customWidth="true" max="17" min="17" width="79.42578125"/>
+    <col customWidth="true" max="19" min="19" width="17.7109375"/>
+    <col customWidth="true" max="26" min="26" width="19.7109375"/>
+    <col customWidth="true" max="27" min="27" width="19"/>
+    <col customWidth="true" max="29" min="29" width="23.42578125"/>
+    <col customWidth="true" max="30" min="30" width="37.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -888,6 +896,9 @@
       </c>
     </row>
     <row r="2" spans="2:28">
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -925,11 +936,17 @@
       </c>
     </row>
     <row r="3" spans="2:28">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1706,11 +1723,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G37" r:id="rId1" xr:uid="{076C7558-C37A-4981-BC87-1FED4AAAB1DD}"/>
-    <hyperlink ref="G38" r:id="rId2" xr:uid="{DCB7D65D-76F9-492F-BFD9-A6968BA34184}"/>
-    <hyperlink ref="G39" r:id="rId3" xr:uid="{FFF25B65-828D-4087-9C3E-D543F9474897}"/>
-    <hyperlink ref="G40" r:id="rId4" xr:uid="{9FD75F2E-716C-4641-A58B-6995B67024C4}"/>
-    <hyperlink ref="G41" r:id="rId5" xr:uid="{00C7783B-EF5E-4162-9CD6-A02FBCC693B7}"/>
+    <hyperlink ref="G37" r:id="rId1"/>
+    <hyperlink ref="G38" r:id="rId2"/>
+    <hyperlink ref="G39" r:id="rId3"/>
+    <hyperlink ref="G40" r:id="rId4"/>
+    <hyperlink ref="G41" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando_idwell/Documents/Projects/terminal-expense-tracker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
   <si>
     <t>Owned</t>
   </si>
@@ -61,9 +67,6 @@
   </si>
   <si>
     <t>Budget</t>
-  </si>
-  <si>
-    <t>Fidelity Divident ETF</t>
   </si>
   <si>
     <t>EL</t>
@@ -489,7 +492,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -861,27 +863,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB58"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="true" max="2" min="2" width="34.85546875"/>
-    <col customWidth="true" max="3" min="3" width="23.85546875"/>
-    <col customWidth="true" max="4" min="4" width="28.85546875"/>
-    <col customWidth="true" max="6" min="6" width="25"/>
-    <col customWidth="true" max="17" min="17" width="79.42578125"/>
-    <col customWidth="true" max="19" min="19" width="17.7109375"/>
-    <col customWidth="true" max="26" min="26" width="19.7109375"/>
-    <col customWidth="true" max="27" min="27" width="19"/>
-    <col customWidth="true" max="29" min="29" width="23.42578125"/>
-    <col customWidth="true" max="30" min="30" width="37.85546875"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="17" max="17" width="79.5" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="29" max="29" width="23.5" customWidth="1"/>
+    <col min="30" max="30" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -935,51 +937,51 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
         <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
       </c>
       <c r="T3">
         <v>3960</v>
       </c>
       <c r="Y3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3">
         <f>-(0.15*Z2)</f>
         <v>-225</v>
       </c>
       <c r="AA3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB3">
         <v>-300</v>
       </c>
     </row>
-    <row r="4" spans="2:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -988,16 +990,16 @@
         <v>5</v>
       </c>
       <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
         <v>17</v>
-      </c>
-      <c r="S4" t="s">
-        <v>18</v>
       </c>
       <c r="T4">
         <v>-906.76</v>
       </c>
       <c r="Y4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4">
         <f>(-0.1*Z2)</f>
@@ -1007,12 +1009,12 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="5" spans="2:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -1021,16 +1023,16 @@
         <v>5</v>
       </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
         <v>22</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
       </c>
       <c r="T5">
         <v>-54.99</v>
       </c>
       <c r="Y5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z5">
         <f>-(0.15*Z2)</f>
@@ -1040,9 +1042,9 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="6" spans="2:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1051,25 +1053,25 @@
         <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T6">
         <v>-360</v>
       </c>
       <c r="Y6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6">
         <f>(-0.1*Z2)</f>
         <v>-150</v>
       </c>
     </row>
-    <row r="7" spans="2:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1078,103 +1080,103 @@
         <v>5</v>
       </c>
       <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
         <v>29</v>
-      </c>
-      <c r="S7" t="s">
-        <v>30</v>
       </c>
       <c r="T7">
         <v>-58</v>
       </c>
       <c r="Y7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z7">
         <f>(-0.05*Z2)</f>
         <v>-75</v>
       </c>
       <c r="AA7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="2:28">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="S8" t="s">
         <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
       </c>
       <c r="T8">
         <v>-36.9</v>
       </c>
       <c r="Y8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z8">
         <f>(-0.1*Z2)</f>
         <v>-150</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="S9" t="s">
         <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>40</v>
       </c>
       <c r="T9">
         <v>-1500</v>
       </c>
       <c r="Y9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z9">
         <f>(0*Z2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10">
         <v>-1000</v>
       </c>
       <c r="Y10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z10">
         <f>(0*Z2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
         <v>7</v>
@@ -1184,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB11">
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="2:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>46</v>
       </c>
       <c r="Z12">
         <f>-(0.05*Z2)</f>
@@ -1208,90 +1210,90 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="2:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z13">
         <f>(0*Z2)</f>
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB13">
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="2:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>53</v>
       </c>
       <c r="Z14">
         <f>(-0.05*Z2)</f>
         <v>-75</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB14">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>55</v>
       </c>
       <c r="Z15">
         <f>(-0.1*Z2)</f>
         <v>-150</v>
       </c>
       <c r="AA15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB15">
         <v>-200</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>58</v>
       </c>
       <c r="Z16">
         <f>-(0.15*Z2)</f>
@@ -1301,79 +1303,79 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>61</v>
       </c>
       <c r="AB17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>65</v>
       </c>
       <c r="AB19">
         <v>-500</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28">
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1383,56 +1385,56 @@
         <v>43.349999999999909</v>
       </c>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28">
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28">
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z27">
         <f>SUM(Z3:Z17)+Z2</f>
@@ -1443,297 +1445,389 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28">
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28">
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
-      <c r="C31" t="s">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="2:28">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
+      <c r="Y32" t="s">
         <v>83</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" t="s">
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="2:26">
-      <c r="B33" s="2" t="s">
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
+      <c r="Y33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Z33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y34" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="2:26">
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y34" t="s">
+      <c r="C35" t="s">
         <v>90</v>
       </c>
-      <c r="Z34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="Y35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Z35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>92</v>
       </c>
-      <c r="Z35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26">
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" t="s">
+      <c r="Y36" t="s">
         <v>94</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>95</v>
       </c>
-      <c r="Z36" t="s">
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="2:26">
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
         <v>97</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="Y37" t="s">
         <v>99</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>100</v>
       </c>
-      <c r="Z37" t="s">
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="2:26">
-      <c r="C38" t="s">
+      <c r="G38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="Y38" t="s">
         <v>103</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>104</v>
       </c>
-      <c r="Z38" t="s">
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="2:26">
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="Y39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="Z39" t="s">
         <v>109</v>
       </c>
-      <c r="Z39" t="s">
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="2:26">
-      <c r="C40" t="s">
+      <c r="G40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="Y40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Y40" s="2" t="s">
+      <c r="Z40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>113</v>
       </c>
-      <c r="Z40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26">
-      <c r="C41" t="s">
+      <c r="G41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="1" t="s">
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="2:26">
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>116</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="2:26">
-      <c r="C44" t="s">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:26">
-      <c r="C45" t="s">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:26">
-      <c r="C47" t="s">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="2:26">
-      <c r="C48" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="C49" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="C50" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="2" t="s">
+      <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>130</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>132</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G37" r:id="rId1"/>
-    <hyperlink ref="G38" r:id="rId2"/>
-    <hyperlink ref="G39" r:id="rId3"/>
-    <hyperlink ref="G40" r:id="rId4"/>
-    <hyperlink ref="G41" r:id="rId5"/>
+    <hyperlink ref="G37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B90391-C4E3-0C4A-838A-80C9C9209CEA}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>-906.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>-54.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>-36.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>-1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDCE7E6-DC0B-42A6-96B5-F7F37BA20C66}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -1741,11 +1835,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Expenses" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Watchlist" sheetId="4" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="3" r:id="rId3"/>
+    <sheet name="Stonks" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="140">
   <si>
     <t>Owned</t>
   </si>
@@ -447,9 +449,6 @@
     <t>CHEESECAKE</t>
   </si>
   <si>
-    <t>XRP</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -457,13 +456,16 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +502,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -522,12 +539,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -865,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,16 +958,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1736,91 +1755,614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B90391-C4E3-0C4A-838A-80C9C9209CEA}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA39340E-EA79-814E-9815-9FD7D8A3E949}">
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>-906.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>-54.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>-360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>-36.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>-1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>-1000</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,18 +2370,294 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDCE7E6-DC0B-42A6-96B5-F7F37BA20C66}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B90391-C4E3-0C4A-838A-80C9C9209CEA}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="19.33203125"/>
+    <col customWidth="true" max="2" min="2" width="21.1640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>-906.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>-54.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>-36.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>-1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDCE7E6-DC0B-42A6-96B5-F7F37BA20C66}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>136</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>Expenses!B9</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <f>-(0.15*B2)</f>
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>(-0.1*B2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <f>-(0.15*B2)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <f>(-0.1*B2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>(-0.05*B2)</f>
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f>(-0.1*B2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <f>(0*B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <f>(0*B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>(0*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <f>-(0.05*B2)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <f>(0*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <f>(-0.05*B2)</f>
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f>(-0.1*B2)</f>
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <f>-(0.15*B2)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B2:B20)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Stonks" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Owned</t>
   </si>
@@ -459,6 +458,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Berlin Ticket</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Salario Buk\</t>
+  </si>
+  <si>
+    <t>ldkl</t>
+  </si>
+  <si>
+    <t>Salario Buk</t>
+  </si>
+  <si>
+    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjchkjcjhjhjd</t>
   </si>
 </sst>
 </file>
@@ -1758,13 +1775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA39340E-EA79-814E-9815-9FD7D8A3E949}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1772,21 +1789,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>1000</v>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -1794,361 +1811,437 @@
         <v>138</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
-        <v>50</v>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
-        <v>50</v>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5">
-        <v>50</v>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
-        <v>50</v>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
         <v>85</v>
       </c>
@@ -2158,7 +2251,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
         <v>92</v>
       </c>
@@ -2168,7 +2261,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -2178,7 +2271,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>101</v>
@@ -2186,7 +2279,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>105</v>
       </c>
@@ -2196,7 +2289,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>110</v>
@@ -2204,7 +2297,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
         <v>113</v>
@@ -2212,7 +2305,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
         <v>115</v>
       </c>
@@ -2222,7 +2315,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
         <v>117</v>
       </c>
@@ -2232,7 +2325,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
         <v>119</v>
@@ -2240,7 +2333,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
         <v>120</v>
@@ -2248,7 +2341,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
@@ -2258,7 +2351,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
         <v>123</v>
@@ -2266,7 +2359,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
         <v>124</v>
@@ -2274,7 +2367,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>125</v>
@@ -2282,7 +2375,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>126</v>
@@ -2290,7 +2383,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>127</v>
       </c>
@@ -2300,7 +2393,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>129</v>
       </c>
@@ -2310,7 +2403,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
         <v>131</v>
       </c>
@@ -2320,7 +2413,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2423,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
         <v>134</v>
@@ -2338,7 +2431,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
         <v>7</v>
@@ -2346,7 +2439,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
         <v>135</v>
@@ -2354,7 +2447,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
         <v>46</v>
       </c>
@@ -2371,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B90391-C4E3-0C4A-838A-80C9C9209CEA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2383,20 +2476,27 @@
     <col customWidth="true" max="2" min="2" width="21.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B3:B9)</f>
+        <v>1043.3499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2504,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2512,7 @@
         <v>-906.76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2420,7 +2520,7 @@
         <v>-54.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2428,15 +2528,15 @@
         <v>-360</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B7">
         <v>-58</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2544,7 @@
         <v>-36.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2452,7 +2552,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2460,8 +2560,19 @@
         <v>-1000</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Owned</t>
   </si>
@@ -476,6 +476,27 @@
   </si>
   <si>
     <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjchkjcjhjhjd</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjchkjcjhj</t>
+  </si>
+  <si>
+    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjch</t>
+  </si>
+  <si>
+    <t>Salario Duck</t>
+  </si>
+  <si>
+    <t>Salario Duck111</t>
+  </si>
+  <si>
+    <t>Salario Duckddd</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -2483,10 +2504,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>999999</v>
       </c>
       <c r="C2" t="s">
         <v>139</v>
@@ -2566,6 +2587,22 @@
       </c>
       <c r="B11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Owned</t>
   </si>
@@ -472,31 +472,10 @@
     <t>ldkl</t>
   </si>
   <si>
-    <t>Salario Buk</t>
-  </si>
-  <si>
-    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjchkjcjhjhjd</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjchkjcjhj</t>
-  </si>
-  <si>
-    <t>Salario Bukssjkadajdakjkjljjhchuhkdhcshuhksjcdsjskjhkdcskcjhjscjsdcjsjadhkhdkhjhjdcjckjhkdfjch</t>
-  </si>
-  <si>
-    <t>Salario Duck</t>
-  </si>
-  <si>
-    <t>Salario Duck111</t>
-  </si>
-  <si>
-    <t>Salario Duckddd</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>SalarioSksjssskh</t>
+  </si>
+  <si>
+    <t>Rendas</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2467,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2504,17 +2483,17 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B2">
-        <v>999999</v>
+        <v>5018181</v>
       </c>
       <c r="C2" t="s">
         <v>139</v>
       </c>
       <c r="D2">
         <f>SUM(B3:B9)</f>
-        <v>1043.3499999999999</v>
+        <v>4052.3500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2522,12 +2501,12 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3960</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>-906.76</v>
@@ -2587,22 +2566,6 @@
       </c>
       <c r="B11">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
